--- a/Inputs/potential_variables.xlsx
+++ b/Inputs/potential_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximin\Documents\GitHub\FTT_StandAlone_v0.8\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E0558-1F76-4285-905D-7CECE6ABC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4C5DD-B1A0-4EE5-A75F-5587B3F8234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="3600" windowWidth="34950" windowHeight="15345" xr2:uid="{CAB4FF64-F2C4-4422-909E-2EBC8952FB6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>variable</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>0/1</t>
+  </si>
+  <si>
+    <t>MEWS</t>
+  </si>
+  <si>
+    <t>FTT:Power shares of capacity by tech</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651DD2D-1F27-4801-BA2E-0FDE8D3086B9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +549,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
